--- a/public/data/res/城乡代码12位.xlsx
+++ b/public/data/res/城乡代码12位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Che\Documents\Projects\Nodejs\Yb.CloudDataApi.Vue\public\data\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AA1C7E-00B3-4DA8-82CF-70A28C780743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2064727-E9F9-432F-A20E-75D62E1121C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="256">
   <si>
     <t>省码</t>
   </si>
@@ -142,669 +142,836 @@
     <t>仁和镇</t>
   </si>
   <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>平地镇</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>福田镇</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>同德镇</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>金江镇</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>大龙潭彝族乡</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>务本乡</t>
+  </si>
+  <si>
+    <t>中坝乡</t>
+  </si>
+  <si>
+    <t>510411001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉鲊村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕民村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干坝子村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大龙潭村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新街村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411200203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混撒拉村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411100001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>老街社区居民委员会</t>
-  </si>
-  <si>
-    <t>510411100001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仁和街社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>沙沟社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大河社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弯庄社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>土城街社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100006</t>
-  </si>
-  <si>
-    <t>008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>四十九社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100008</t>
-  </si>
-  <si>
-    <t>009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银华社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100009</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>沙沟村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100200</t>
-  </si>
-  <si>
-    <t>201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>莲花村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100201</t>
-  </si>
-  <si>
-    <t>202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>田坝村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100202</t>
-  </si>
-  <si>
-    <t>203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总发村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100203</t>
-  </si>
-  <si>
-    <t>204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>立新村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100204</t>
-  </si>
-  <si>
-    <t>205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>红旗村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100205</t>
-  </si>
-  <si>
-    <t>206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>板桥村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411100206</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>平地镇</t>
-  </si>
-  <si>
-    <t>121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411101001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>平地街社区居民委员会</t>
-  </si>
-  <si>
-    <t>510411101001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>迤沙拉村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411101200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>白拉古村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411101201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>辣子哨村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411101202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>平地村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411101203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>波西村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411101204</t>
-  </si>
-  <si>
-    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大田镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大田街社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银鹿村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌喇么村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>片那立村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小啊喇村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴园村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田街社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>务子田村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塘坝村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龟村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金台子村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同德街社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共和村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双河村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新民村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马拉所村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道中桥村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411104206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411103203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411102001</t>
-  </si>
-  <si>
-    <t>银鹿村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411102201</t>
-  </si>
-  <si>
-    <t>乌喇么村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411102202</t>
-  </si>
-  <si>
-    <t>片那立村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411102203</t>
-  </si>
-  <si>
-    <t>小啊喇村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411102204</t>
-  </si>
-  <si>
-    <t>榴园村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411102206</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>福田镇</t>
-  </si>
-  <si>
-    <t>福田街社区居民委员会</t>
-  </si>
-  <si>
-    <t>510411103001</t>
-  </si>
-  <si>
-    <t>务子田村村民委员会</t>
-  </si>
-  <si>
-    <t>510411103200</t>
-  </si>
-  <si>
-    <t>塘坝村村民委员会</t>
-  </si>
-  <si>
-    <t>510411103201</t>
-  </si>
-  <si>
-    <t>金龟村村民委员会</t>
-  </si>
-  <si>
-    <t>510411103202</t>
-  </si>
-  <si>
-    <t>金台子村村民委员会</t>
-  </si>
-  <si>
-    <t>510411103203</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>同德镇</t>
-  </si>
-  <si>
-    <t>同德街社区居民委员会</t>
-  </si>
-  <si>
-    <t>510411104001</t>
-  </si>
-  <si>
-    <t>共和村村民委员会</t>
-  </si>
-  <si>
-    <t>510411104200</t>
-  </si>
-  <si>
-    <t>双河村村民委员会</t>
-  </si>
-  <si>
-    <t>510411104202</t>
-  </si>
-  <si>
-    <t>新民村村民委员会</t>
-  </si>
-  <si>
-    <t>510411104203</t>
-  </si>
-  <si>
-    <t>马拉所村村民委员会</t>
-  </si>
-  <si>
-    <t>510411104204</t>
-  </si>
-  <si>
-    <t>道中桥村村民委员会</t>
-  </si>
-  <si>
-    <t>510411104206</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>金江镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411105001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小鲊石社区居民委员会</t>
-  </si>
-  <si>
-    <t>510411105001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大沙坝社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>金江社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>阿基鲁社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>金江村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>保安营村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鱼塘村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>立柯村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411105205</t>
-  </si>
-  <si>
-    <t>106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>布德镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>布德村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411106200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中心村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411106201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新桥村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411106202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>老村子村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411106205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>民政村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411106206</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>前进镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>前进社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>田房箐社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普达社区居民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高峰村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>田堡村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>永胜村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>胜利村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411107206</t>
-  </si>
-  <si>
-    <t>大龙潭彝族乡</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>啊喇彝族乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>永富村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411201200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大竹村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411201201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>官房村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411201203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>起查喇村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411201204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>啊喇村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411201205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>太平乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>花山村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411203201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>河边村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411203202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>灰嘎村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411203206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>革新村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411203207</t>
-  </si>
-  <si>
-    <t>208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>红岩村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411203208</t>
-  </si>
-  <si>
-    <t>209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>先锋村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411203209</t>
-  </si>
-  <si>
-    <t>务本乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>乌拉村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411204200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>葩地村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411204201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>垭口村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411204202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大火山村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411204203</t>
-  </si>
-  <si>
-    <t>中坝乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510411205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中坝村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411205200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大纸房村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411205201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学房村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411205202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>团山村村民委员会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>510411205203</t>
-  </si>
-  <si>
-    <t>510411001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200207</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉鲊村村民委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>裕民村村民委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>干坝子村村民委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大龙潭村村民委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200202</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新街村村民委员会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510411200203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>混撒拉村村民委员会</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1400,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -1508,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -1732,7 +1899,7 @@
         <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1760,11 +1927,11 @@
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>41</v>
+      <c r="I11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1792,11 +1959,11 @@
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>43</v>
+      <c r="I12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1824,11 +1991,11 @@
       <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>45</v>
+      <c r="I13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1856,11 +2023,11 @@
       <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>47</v>
+      <c r="I14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1888,11 +2055,11 @@
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>49</v>
+      <c r="I15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1920,11 +2087,11 @@
       <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>51</v>
+      <c r="I16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1941,7 +2108,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -1952,11 +2119,11 @@
       <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>54</v>
+      <c r="I17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1973,7 +2140,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
@@ -1984,11 +2151,11 @@
       <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>57</v>
+      <c r="I18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -2005,22 +2172,22 @@
         <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -2037,22 +2204,22 @@
         <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -2069,22 +2236,22 @@
         <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -2101,22 +2268,22 @@
         <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -2133,22 +2300,22 @@
         <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -2165,22 +2332,22 @@
         <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>77</v>
+        <v>44</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -2197,22 +2364,22 @@
         <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -2226,13 +2393,13 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
@@ -2241,10 +2408,10 @@
         <v>13</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -2258,25 +2425,25 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -2290,25 +2457,25 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>88</v>
+        <v>44</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -2322,25 +2489,25 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>90</v>
+        <v>44</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -2354,25 +2521,25 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>92</v>
+        <v>44</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -2386,25 +2553,25 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -2418,25 +2585,25 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>96</v>
+        <v>44</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
@@ -2450,13 +2617,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>14</v>
@@ -2464,11 +2631,11 @@
       <c r="H33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>98</v>
+      <c r="I33" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
@@ -2482,25 +2649,25 @@
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
@@ -2514,25 +2681,25 @@
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>102</v>
+        <v>44</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
@@ -2546,25 +2713,25 @@
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>104</v>
+        <v>44</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -2578,25 +2745,25 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>106</v>
+        <v>44</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
@@ -2610,25 +2777,25 @@
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
@@ -2642,25 +2809,25 @@
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
@@ -2674,13 +2841,13 @@
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>14</v>
@@ -2689,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
@@ -2706,25 +2873,25 @@
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -2738,25 +2905,25 @@
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>116</v>
+        <v>44</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
@@ -2770,25 +2937,25 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
@@ -2802,25 +2969,25 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>120</v>
+        <v>44</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
@@ -2834,25 +3001,25 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>122</v>
+        <v>44</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -2866,13 +3033,13 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>14</v>
@@ -2881,10 +3048,10 @@
         <v>13</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
@@ -2898,25 +3065,25 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>126</v>
+        <v>54</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
@@ -2930,25 +3097,25 @@
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
@@ -2962,25 +3129,25 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>130</v>
+        <v>44</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
@@ -2994,25 +3161,25 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>132</v>
+        <v>44</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
@@ -3026,25 +3193,25 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>134</v>
+        <v>44</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
@@ -3058,25 +3225,25 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>136</v>
+        <v>44</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
@@ -3090,13 +3257,13 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>14</v>
@@ -3105,10 +3272,10 @@
         <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
@@ -3122,25 +3289,25 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>140</v>
+        <v>54</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
@@ -3154,25 +3321,25 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>142</v>
+        <v>54</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
@@ -3186,25 +3353,25 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>144</v>
+        <v>54</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -3218,25 +3385,25 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>146</v>
+        <v>54</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
@@ -3250,25 +3417,25 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>148</v>
+        <v>44</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
@@ -3282,25 +3449,25 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>150</v>
+        <v>44</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
@@ -3314,25 +3481,25 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>152</v>
+        <v>44</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
@@ -3346,25 +3513,25 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>154</v>
+        <v>44</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
@@ -3378,13 +3545,13 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>14</v>
@@ -3392,11 +3559,11 @@
       <c r="H62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>156</v>
+      <c r="I62" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
@@ -3410,25 +3577,25 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>158</v>
+        <v>44</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
@@ -3442,25 +3609,25 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>160</v>
+        <v>54</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
@@ -3474,25 +3641,25 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>162</v>
+        <v>44</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
@@ -3506,25 +3673,25 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>164</v>
+        <v>44</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
@@ -3538,25 +3705,25 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>166</v>
+        <v>44</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
@@ -3570,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>13</v>
@@ -3584,11 +3751,11 @@
       <c r="H68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>168</v>
+      <c r="I68" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
@@ -3602,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
@@ -3616,11 +3783,11 @@
       <c r="H69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>170</v>
+      <c r="I69" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
@@ -3634,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>23</v>
@@ -3648,11 +3815,11 @@
       <c r="H70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>172</v>
+      <c r="I70" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
@@ -3666,7 +3833,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>26</v>
@@ -3680,11 +3847,11 @@
       <c r="H71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>174</v>
+      <c r="I71" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
@@ -3698,25 +3865,25 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>176</v>
+        <v>44</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
@@ -3730,25 +3897,25 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>178</v>
+        <v>44</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
@@ -3762,25 +3929,25 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>180</v>
+        <v>44</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
@@ -3794,25 +3961,25 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>182</v>
+        <v>44</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
@@ -3826,13 +3993,13 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>14</v>
@@ -3841,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
@@ -3858,25 +4025,25 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
@@ -3890,25 +4057,25 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
@@ -3922,25 +4089,25 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
@@ -3954,25 +4121,25 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
@@ -3986,25 +4153,25 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
@@ -4018,25 +4185,25 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>242</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
@@ -4050,13 +4217,13 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>14</v>
@@ -4064,11 +4231,11 @@
       <c r="H83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>186</v>
+      <c r="I83" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
@@ -4082,25 +4249,25 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>188</v>
+        <v>65</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
@@ -4114,25 +4281,25 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>190</v>
+        <v>44</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
@@ -4146,25 +4313,25 @@
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>192</v>
+        <v>44</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
@@ -4178,25 +4345,25 @@
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>194</v>
+        <v>44</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
@@ -4210,25 +4377,25 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>196</v>
+        <v>44</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
@@ -4242,13 +4409,13 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>14</v>
@@ -4256,11 +4423,11 @@
       <c r="H89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>197</v>
+      <c r="I89" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
@@ -4274,25 +4441,25 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>199</v>
+        <v>44</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
@@ -4306,25 +4473,25 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>201</v>
+        <v>44</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
@@ -4338,25 +4505,25 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>203</v>
+        <v>44</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
@@ -4370,25 +4537,25 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>205</v>
+        <v>44</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
@@ -4402,25 +4569,25 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>208</v>
+        <v>65</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
@@ -4434,25 +4601,25 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>211</v>
+        <v>44</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
@@ -4466,13 +4633,13 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>14</v>
@@ -4481,10 +4648,10 @@
         <v>13</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J96" s="4">
-        <v>510411204</v>
+        <v>69</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
@@ -4498,25 +4665,25 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>214</v>
+        <v>65</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
@@ -4530,25 +4697,25 @@
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>216</v>
+        <v>44</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
@@ -4562,25 +4729,25 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>218</v>
+        <v>44</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
@@ -4594,25 +4761,25 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>220</v>
+        <v>44</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
@@ -4626,13 +4793,13 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>14</v>
@@ -4641,10 +4808,10 @@
         <v>13</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J101" s="4">
-        <v>510411205</v>
+        <v>70</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
@@ -4658,25 +4825,25 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>223</v>
+        <v>65</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
@@ -4690,25 +4857,25 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>225</v>
+        <v>44</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
@@ -4722,25 +4889,25 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>227</v>
+        <v>44</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
@@ -4754,25 +4921,25 @@
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>229</v>
+        <v>44</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
